--- a/uc数据导入模板.xlsx
+++ b/uc数据导入模板.xlsx
@@ -19,72 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>类名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证功能描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.faxuan.UcenterTest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ucms.test.faxuan.net/ucds/ucenter/checkLoginUserAccount.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysCode=FX001,chooseSysCode=FX001,userPassword=ceshi123,loginCode=9876543210090,type=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysCode=FX001,chooseSysCode=FX001,userPassword=ceshi321,loginCode=9876543210090,type=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试功能描述（可为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.faxuan.ucenter.Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ucds/ucenter/registerUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount=Song01,userPassword=ceshi123,userPhone=13261811193,sysCode=KF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证注册功能可以正常注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证注册已存在用户不能注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,25 +102,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,69 +390,71 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uc数据导入模板.xlsx
+++ b/uc数据导入模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,18 +41,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>net.faxuan.ucenter.Register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ucds/ucenter/registerUser.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userAccount=Song01,userPassword=ceshi123,userPhone=13261811193,sysCode=KF01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,6 +54,73 @@
   </si>
   <si>
     <t>验证注册已存在用户不能注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ucms.test.faxuan.net/ucds/ucenter/registerUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ucenter.test.faxuan.net/rzds/ucenter/refreshtUser.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysCode=KF01</t>
+  </si>
+  <si>
+    <t>refreshtUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放系统用户刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.faxuan.ucenter.UcenterTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ucms.test.faxuan.net/ucds/ucenter/repeatCheck.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在用户名重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在手机号重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在手机号重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在用户名重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果(接口返回状态码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCode=A,sysCode=KF01,type=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCode=13261811193,sysCode=KF01,type=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCode=asd321ssq,sysCode=KF01,type=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCode=15800000063,sysCode=KF01,type=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatCheck1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +143,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,14 +175,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -398,63 +475,182 @@
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>310</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
--- a/uc数据导入模板.xlsx
+++ b/uc数据导入模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userAccount=Song01,userPassword=ceshi123,userPhone=13261811193,sysCode=KF01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +64,6 @@
     <t>sysCode=KF01</t>
   </si>
   <si>
-    <t>refreshtUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开放系统用户刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,7 +112,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>repeatCheck1</t>
+    <t>前置条件(是否需要登录,不需要请留空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,ceshi123,KF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,22 +464,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,150 +495,156 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>301</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>301</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
         <v>301</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>301</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>310</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>310</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>310</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/uc数据导入模板.xlsx
+++ b/uc数据导入模板.xlsx
@@ -33,18 +33,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试功能描述（可为空）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userAccount=Song01,userPassword=ceshi123,userPhone=13261811193,sysCode=KF01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>验证注册功能可以正常注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,31 +88,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loginCode=A,sysCode=KF01,type=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginCode=13261811193,sysCode=KF01,type=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginCode=asd321ssq,sysCode=KF01,type=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginCode=15800000063,sysCode=KF01,type=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件(是否需要登录,不需要请留空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,ceshi123,KF01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;ceshi123;KF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount=Song01;userPassword=ceshi123;userPhone=13261811193;sysCode=KF01</t>
+  </si>
+  <si>
+    <t>loginCode=A;sysCode=KF01;type=1</t>
+  </si>
+  <si>
+    <t>loginCode=13261811193;sysCode=KF01;type=2</t>
+  </si>
+  <si>
+    <t>loginCode=asd321ssq;sysCode=KF01;type=1</t>
+  </si>
+  <si>
+    <t>loginCode=15800000063;sysCode=KF01;type=2</t>
+  </si>
+  <si>
+    <t>参数(多个参数用英文分号隔开)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件(是否需要登录;不需要请留空)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,17 +461,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
@@ -489,174 +482,174 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
       <c r="F3">
         <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="F4">
         <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="F5">
         <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
       <c r="F6">
         <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
       <c r="F7">
         <v>310</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>

--- a/uc数据导入模板.xlsx
+++ b/uc数据导入模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,69 +53,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开放系统用户刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.faxuan.ucenter.UcenterTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ucms.test.faxuan.net/ucds/ucenter/repeatCheck.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在用户名重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在手机号重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在手机号重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在用户名重复性校验测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果(接口返回状态码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A;ceshi123;KF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount=Song01;userPassword=ceshi123;userPhone=13261811193;sysCode=KF01</t>
+  </si>
+  <si>
+    <t>loginCode=A;sysCode=KF01;type=1</t>
+  </si>
+  <si>
+    <t>loginCode=13261811193;sysCode=KF01;type=2</t>
+  </si>
+  <si>
+    <t>loginCode=asd321ssq;sysCode=KF01;type=1</t>
+  </si>
+  <si>
+    <t>loginCode=15800000063;sysCode=KF01;type=2</t>
+  </si>
+  <si>
+    <t>参数(多个参数用英文分号隔开)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件(是否需要登录;不需要请留空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount=Song01;userPassword=ceshi123;userPhone=13261811193;sysCode=KF01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sysCode=KF01</t>
-  </si>
-  <si>
-    <t>开放系统用户刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net.faxuan.ucenter.UcenterTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ucms.test.faxuan.net/ucds/ucenter/repeatCheck.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在用户名重复性校验测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在手机号重复性校验测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在手机号重复性校验测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在用户名重复性校验测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果(接口返回状态码)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A;ceshi123;KF01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAccount=Song01;userPassword=ceshi123;userPhone=13261811193;sysCode=KF01</t>
-  </si>
-  <si>
-    <t>loginCode=A;sysCode=KF01;type=1</t>
-  </si>
-  <si>
-    <t>loginCode=13261811193;sysCode=KF01;type=2</t>
-  </si>
-  <si>
-    <t>loginCode=asd321ssq;sysCode=KF01;type=1</t>
-  </si>
-  <si>
-    <t>loginCode=15800000063;sysCode=KF01;type=2</t>
-  </si>
-  <si>
-    <t>参数(多个参数用英文分号隔开)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件(是否需要登录;不需要请留空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=301;msg=用户已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=310</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -482,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -499,19 +522,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -519,19 +542,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>301</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -539,105 +562,105 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>301</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>301</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>310</v>
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>310</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/uc数据导入模板.xlsx
+++ b/uc数据导入模板.xlsx
@@ -19,24 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
-  <si>
-    <t>类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>测试url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试功能描述（可为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>验证注册功能可以正常注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>net.faxuan.ucenter.UcenterTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://ucms.test.faxuan.net/ucds/ucenter/repeatCheck.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A;ceshi123;KF01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +117,14 @@
   </si>
   <si>
     <t>code=310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试功能描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,199 +468,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>

--- a/uc数据导入模板.xlsx
+++ b/uc数据导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A56B2DD-A812-4C71-8A1D-C31EAED45157}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>测试url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,13 +126,25 @@
   </si>
   <si>
     <t>测试功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类型(POST或GET)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,9 +495,10 @@
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -503,8 +517,11 @@
       <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -520,8 +537,11 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -537,8 +557,11 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -554,8 +577,11 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -571,8 +597,11 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -588,8 +617,11 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -605,8 +637,11 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -624,18 +659,21 @@
       </c>
       <c r="F8" t="s">
         <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
